--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_0.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2116824.041332539</v>
+        <v>-2123260.565908127</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516701</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791245</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14484285.70069626</v>
+        <v>14483695.72130584</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>71.86954418429102</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>126.793042857712</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -744,13 +744,13 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>68.76350334275828</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>50.64353720722711</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>133.4341013518767</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>114.7398479781407</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>160.8542999853966</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>335.2122228055261</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -981,10 +981,10 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>73.0917716496036</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
         <v>118.8592197488542</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>50.64353720722711</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>55.66823126610259</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>2.985676702963014</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -1139,16 +1139,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -1196,10 +1196,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>146.2186968881544</v>
       </c>
       <c r="Y8" t="n">
-        <v>226.8653251659286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.0363847091458</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>81.76808600966059</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.479377239889</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>40.13905097438976</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372791</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362803</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750155</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087849</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
@@ -1436,7 +1436,7 @@
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.447489593873</v>
+        <v>32.1342384863315</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096564</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,13 +1534,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>9.441730522967667</v>
       </c>
       <c r="G13" t="n">
-        <v>40.78297506860741</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901689</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
@@ -1594,7 +1594,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767912</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1613,19 +1613,19 @@
         <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>117.8545206798372</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
         <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372791</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362803</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>32.13423848633195</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750155</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087849</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>296.2107322866635</v>
@@ -1673,7 +1673,7 @@
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.447489593873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096564</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>57.23684382666991</v>
       </c>
       <c r="G16" t="n">
-        <v>40.78297506860719</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901689</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767912</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1856,13 +1856,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875645</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1904,10 +1904,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799142</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2093,13 +2093,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2141,10 +2141,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="26">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815731</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093889</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227891</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619111</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126122</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568059</v>
+        <v>296.251208184167</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564644</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838885</v>
+        <v>24.17382596574997</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828898</v>
+        <v>52.06849973565009</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.905821430807</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086856</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435639</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158951</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.0194812043173</v>
+        <v>70.57601873167842</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459971</v>
+        <v>55.72314698196082</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643943</v>
+        <v>41.29686219380055</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931855</v>
+        <v>41.22330424667966</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908581</v>
+        <v>42.97275566644693</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147795</v>
+        <v>53.79159358883906</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804999</v>
+        <v>41.14384575541111</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922192</v>
+        <v>18.98356133658304</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367784</v>
+        <v>9.882059701038955</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920516</v>
+        <v>88.00800320656627</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407384</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678082</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546742</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480632</v>
+        <v>167.7171782754243</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221369</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.1010207988132</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3326,10 +3326,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1042.167257230336</v>
+        <v>790.1462079745143</v>
       </c>
       <c r="C2" t="n">
-        <v>648.9917557332667</v>
+        <v>790.1462079745143</v>
       </c>
       <c r="D2" t="n">
-        <v>263.5506269499344</v>
+        <v>790.1462079745143</v>
       </c>
       <c r="E2" t="n">
-        <v>263.5506269499344</v>
+        <v>387.5626830910588</v>
       </c>
       <c r="F2" t="n">
-        <v>190.9551277738829</v>
+        <v>374.7086486614406</v>
       </c>
       <c r="G2" t="n">
-        <v>181.8327763022901</v>
+        <v>365.5862971898479</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475495</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K2" t="n">
-        <v>43.49565939475495</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L2" t="n">
-        <v>536.8159511132837</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M2" t="n">
-        <v>673.8990329354866</v>
+        <v>1542.129285544454</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572949</v>
+        <v>1542.129285544454</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465277</v>
+        <v>1542.129285544454</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596799</v>
+        <v>1890.316777675976</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="S2" t="n">
-        <v>2008.269414678798</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="T2" t="n">
-        <v>1784.768812238215</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="U2" t="n">
-        <v>1784.768812238215</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="V2" t="n">
-        <v>1442.662002941733</v>
+        <v>1947.088557152569</v>
       </c>
       <c r="W2" t="n">
-        <v>1442.662002941733</v>
+        <v>1576.089522120856</v>
       </c>
       <c r="X2" t="n">
-        <v>1442.662002941733</v>
+        <v>1186.636917053913</v>
       </c>
       <c r="Y2" t="n">
-        <v>1442.662002941733</v>
+        <v>790.1462079745143</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021424</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622346</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>375.070220083715</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>305.6121358991106</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>181.1803297822424</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284336</v>
+        <v>90.8905007444269</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475495</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K3" t="n">
-        <v>43.49565939475495</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>43.49565939475495</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>581.7544444048474</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875478</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466459</v>
+        <v>1435.175877545636</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182857</v>
+        <v>1840.797246262034</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635812</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535681</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734589</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413231</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784298</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917585</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675965</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431038</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.49565939475495</v>
+        <v>684.2673593730167</v>
       </c>
       <c r="C4" t="n">
-        <v>43.49565939475495</v>
+        <v>684.2673593730167</v>
       </c>
       <c r="D4" t="n">
-        <v>43.49565939475495</v>
+        <v>684.2673593730167</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475495</v>
+        <v>528.7085472322192</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475495</v>
+        <v>528.7085472322192</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475495</v>
+        <v>360.4544933316647</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475495</v>
+        <v>204.9759422931587</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475495</v>
+        <v>71.88151693023653</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>821.0416925688844</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>618.2256087514338</v>
+        <v>684.2673593730167</v>
       </c>
       <c r="T4" t="n">
-        <v>382.5065569196679</v>
+        <v>684.2673593730167</v>
       </c>
       <c r="U4" t="n">
-        <v>382.5065569196679</v>
+        <v>684.2673593730167</v>
       </c>
       <c r="V4" t="n">
-        <v>382.5065569196679</v>
+        <v>684.2673593730167</v>
       </c>
       <c r="W4" t="n">
-        <v>382.5065569196679</v>
+        <v>684.2673593730167</v>
       </c>
       <c r="X4" t="n">
-        <v>266.6077205781116</v>
+        <v>684.2673593730167</v>
       </c>
       <c r="Y4" t="n">
-        <v>43.49565939475495</v>
+        <v>684.2673593730167</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>759.4637545949105</v>
+        <v>1736.564132962857</v>
       </c>
       <c r="C5" t="n">
-        <v>366.2882530978411</v>
+        <v>1736.564132962857</v>
       </c>
       <c r="D5" t="n">
-        <v>366.2882530978411</v>
+        <v>1736.564132962857</v>
       </c>
       <c r="E5" t="n">
-        <v>366.2882530978411</v>
+        <v>1333.980608079402</v>
       </c>
       <c r="F5" t="n">
-        <v>353.4342186682229</v>
+        <v>917.0861696093798</v>
       </c>
       <c r="G5" t="n">
-        <v>344.3118671966301</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475495</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K5" t="n">
-        <v>135.6402479253942</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="L5" t="n">
-        <v>135.6402479253942</v>
+        <v>514.9239283250766</v>
       </c>
       <c r="M5" t="n">
-        <v>673.8990329354866</v>
+        <v>1028.526606934765</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.710316572949</v>
+        <v>1542.129285544454</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465277</v>
+        <v>1542.129285544454</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596799</v>
+        <v>1890.316777675976</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023269</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.27650096432</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="T5" t="n">
-        <v>1746.775898523736</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="U5" t="n">
-        <v>1491.023168958335</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="V5" t="n">
-        <v>1148.916359661854</v>
+        <v>1736.564132962857</v>
       </c>
       <c r="W5" t="n">
-        <v>1148.916359661854</v>
+        <v>1736.564132962857</v>
       </c>
       <c r="X5" t="n">
-        <v>759.4637545949105</v>
+        <v>1736.564132962857</v>
       </c>
       <c r="Y5" t="n">
-        <v>759.4637545949105</v>
+        <v>1736.564132962857</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.8134179021424</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>505.1591874622346</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>375.070220083715</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>301.240147710378</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284336</v>
+        <v>90.8905007444269</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475495</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K6" t="n">
-        <v>43.49565939475495</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>480.0174418653859</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0174418653859</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875478</v>
+        <v>1435.175877545636</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466459</v>
+        <v>1435.175877545636</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182857</v>
+        <v>1840.797246262034</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635812</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535681</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734589</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413231</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784298</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917585</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692675965</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431038</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.49565939475495</v>
+        <v>97.73378338876535</v>
       </c>
       <c r="C7" t="n">
-        <v>43.49565939475495</v>
+        <v>97.73378338876535</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>821.0416925688844</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="T7" t="n">
-        <v>818.0258575153864</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="U7" t="n">
-        <v>532.5870657572873</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="V7" t="n">
-        <v>266.6077205781116</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="W7" t="n">
-        <v>266.6077205781116</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="X7" t="n">
-        <v>266.6077205781116</v>
+        <v>506.0538632634233</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.49565939475495</v>
+        <v>282.9418020800666</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>611.6668769506938</v>
+        <v>1338.333452267659</v>
       </c>
       <c r="C8" t="n">
-        <v>611.6668769506938</v>
+        <v>1338.333452267659</v>
       </c>
       <c r="D8" t="n">
-        <v>611.6668769506938</v>
+        <v>1338.333452267659</v>
       </c>
       <c r="E8" t="n">
-        <v>611.6668769506938</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="F8" t="n">
-        <v>194.7724384806716</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
@@ -4808,19 +4808,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="L8" t="n">
-        <v>318.7636682303387</v>
+        <v>503.6092283712875</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1049.610128415868</v>
       </c>
       <c r="N8" t="n">
-        <v>1392.575851912381</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4835,19 +4835,19 @@
         <v>2199.134950018231</v>
       </c>
       <c r="U8" t="n">
-        <v>1943.38222045283</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="V8" t="n">
-        <v>1601.275411156348</v>
+        <v>1857.028140721749</v>
       </c>
       <c r="W8" t="n">
-        <v>1230.276376124636</v>
+        <v>1486.029105690037</v>
       </c>
       <c r="X8" t="n">
-        <v>840.8237710576924</v>
+        <v>1338.333452267659</v>
       </c>
       <c r="Y8" t="n">
-        <v>611.6668769506938</v>
+        <v>1338.333452267659</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="M9" t="n">
-        <v>623.6437572083089</v>
+        <v>1065.6651033901</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1651.163108396702</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>2167.683390987683</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>639.6509845843718</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>639.6509845843718</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>484.0178714868866</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>484.0178714868866</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>401.4238452145021</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>233.1697913139477</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U10" t="n">
-        <v>100.8850758683575</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="V10" t="n">
-        <v>100.8850758683575</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="W10" t="n">
-        <v>100.8850758683575</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="X10" t="n">
-        <v>100.8850758683575</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="Y10" t="n">
-        <v>100.8850758683575</v>
+        <v>824.8590032756731</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1135.015795124459</v>
+        <v>2033.222718167679</v>
       </c>
       <c r="C11" t="n">
-        <v>813.636568773584</v>
+        <v>1711.843491816804</v>
       </c>
       <c r="D11" t="n">
-        <v>499.9917151364457</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="E11" t="n">
-        <v>169.2044653991841</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F11" t="n">
-        <v>169.2044653991841</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="G11" t="n">
-        <v>128.659969465457</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H11" t="n">
-        <v>128.659969465457</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5069,22 +5069,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998631</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="U11" t="n">
-        <v>2675.578323579423</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="V11" t="n">
-        <v>2405.267789429136</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="W11" t="n">
-        <v>2106.065029543617</v>
+        <v>2712.036345407502</v>
       </c>
       <c r="X11" t="n">
-        <v>1788.408699622868</v>
+        <v>2394.380015486753</v>
       </c>
       <c r="Y11" t="n">
-        <v>1463.714265689663</v>
+        <v>2361.921188732882</v>
       </c>
     </row>
     <row r="12">
@@ -5118,16 +5118,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>568.1699486069232</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N12" t="n">
         <v>1223.947919817482</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>103.3140520158402</v>
+        <v>155.4187662370703</v>
       </c>
       <c r="C13" t="n">
-        <v>103.3140520158402</v>
+        <v>155.4187662370703</v>
       </c>
       <c r="D13" t="n">
-        <v>103.3140520158402</v>
+        <v>155.4187662370703</v>
       </c>
       <c r="E13" t="n">
-        <v>103.3140520158402</v>
+        <v>71.65622924246668</v>
       </c>
       <c r="F13" t="n">
-        <v>103.3140520158402</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
         <v>62.11912770411553</v>
@@ -5197,19 +5197,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774626</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
         <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118221</v>
+        <v>746.0697615118223</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138159</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922021</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.685342236449</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="U13" t="n">
-        <v>936.0428256245442</v>
+        <v>988.1475398457738</v>
       </c>
       <c r="V13" t="n">
-        <v>741.859755591562</v>
+        <v>793.964469812792</v>
       </c>
       <c r="W13" t="n">
-        <v>530.3256286689335</v>
+        <v>582.4303428901635</v>
       </c>
       <c r="X13" t="n">
-        <v>368.0415815981104</v>
+        <v>420.1462958193405</v>
       </c>
       <c r="Y13" t="n">
-        <v>216.7257955609476</v>
+        <v>268.8305097821777</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1135.01579512446</v>
+        <v>2033.222718167679</v>
       </c>
       <c r="C14" t="n">
-        <v>813.636568773584</v>
+        <v>1711.843491816804</v>
       </c>
       <c r="D14" t="n">
-        <v>499.9917151364457</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="E14" t="n">
-        <v>380.9467447527724</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F14" t="n">
-        <v>380.9467447527724</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527724</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654569</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5306,22 +5306,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998631</v>
+        <v>2978.78027853915</v>
       </c>
       <c r="U14" t="n">
-        <v>2675.578323579424</v>
+        <v>2978.78027853915</v>
       </c>
       <c r="V14" t="n">
-        <v>2405.267789429136</v>
+        <v>2978.78027853915</v>
       </c>
       <c r="W14" t="n">
-        <v>2106.065029543617</v>
+        <v>2679.577518653631</v>
       </c>
       <c r="X14" t="n">
-        <v>1788.408699622868</v>
+        <v>2361.921188732882</v>
       </c>
       <c r="Y14" t="n">
-        <v>1463.714265689663</v>
+        <v>2361.921188732882</v>
       </c>
     </row>
     <row r="15">
@@ -5355,16 +5355,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N15" t="n">
         <v>1223.947919817482</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>103.31405201584</v>
+        <v>459.7811691196464</v>
       </c>
       <c r="C16" t="n">
-        <v>103.31405201584</v>
+        <v>361.3723263318295</v>
       </c>
       <c r="D16" t="n">
-        <v>103.31405201584</v>
+        <v>361.3723263318295</v>
       </c>
       <c r="E16" t="n">
-        <v>103.31405201584</v>
+        <v>361.3723263318295</v>
       </c>
       <c r="F16" t="n">
-        <v>103.31405201584</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="G16" t="n">
-        <v>62.11912770411553</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774626</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118221</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138159</v>
+        <v>999.6269248138165</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922021</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.685342236449</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U16" t="n">
-        <v>936.0428256245441</v>
+        <v>936.042825624545</v>
       </c>
       <c r="V16" t="n">
-        <v>741.8597555915621</v>
+        <v>936.042825624545</v>
       </c>
       <c r="W16" t="n">
-        <v>530.3256286689336</v>
+        <v>724.5086987019165</v>
       </c>
       <c r="X16" t="n">
-        <v>368.0415815981106</v>
+        <v>724.5086987019165</v>
       </c>
       <c r="Y16" t="n">
-        <v>216.7257955609477</v>
+        <v>573.1929126647537</v>
       </c>
     </row>
     <row r="17">
@@ -5498,16 +5498,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803433</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924244</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5540,7 +5540,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5592,16 +5592,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N18" t="n">
         <v>1223.947919817482</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5683,40 +5683,40 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
-        <v>960.1439538756169</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q19" t="n">
-        <v>1090.581152532862</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S19" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D20" t="n">
         <v>1098.796330498592</v>
@@ -5741,10 +5741,10 @@
         <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5780,22 +5780,22 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443164</v>
       </c>
     </row>
     <row r="21">
@@ -5829,16 +5829,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390484</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128482</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>804.5780233445259</v>
       </c>
       <c r="O22" t="n">
-        <v>969.324157721467</v>
+        <v>967.282790386234</v>
       </c>
       <c r="P22" t="n">
-        <v>1089.200323498046</v>
+        <v>1087.158956162813</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S22" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="23">
@@ -5972,16 +5972,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,10 +6011,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6023,16 +6023,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6072,10 +6072,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>494.9732559860694</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390484</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128482</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P25" t="n">
-        <v>1087.158956162812</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q25" t="n">
-        <v>1090.581152532862</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6203,16 @@
         <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218609</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390267</v>
       </c>
       <c r="G26" t="n">
         <v>345.9036637142181</v>
@@ -6221,22 +6221,22 @@
         <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>576.9969878838402</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1100.286794884792</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1739.339056658946</v>
       </c>
       <c r="N26" t="n">
-        <v>2423.283548473132</v>
+        <v>2360.201702025981</v>
       </c>
       <c r="O26" t="n">
         <v>2893.292664647883</v>
@@ -6248,16 +6248,16 @@
         <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377514</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605753</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452358</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V26" t="n">
         <v>3060.131976164851</v>
@@ -6269,7 +6269,7 @@
         <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>73.36485894755026</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>73.36485894755026</v>
+        <v>591.6304904949648</v>
       </c>
       <c r="M27" t="n">
-        <v>579.4156798503576</v>
+        <v>1219.402140121646</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1875.180111332205</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D28" t="n">
         <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G28" t="n">
         <v>172.0564727746017</v>
@@ -6379,16 +6379,16 @@
         <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755027</v>
       </c>
       <c r="J28" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225743</v>
       </c>
       <c r="M28" t="n">
         <v>848.0508225904116</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6467,22 +6467,22 @@
         <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1256.420003061516</v>
+        <v>1163.368641331942</v>
       </c>
       <c r="M29" t="n">
-        <v>1888.204925386532</v>
+        <v>1739.339056658945</v>
       </c>
       <c r="N29" t="n">
-        <v>2509.067570753567</v>
+        <v>2360.20170202598</v>
       </c>
       <c r="O29" t="n">
-        <v>3042.158533375469</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P29" t="n">
-        <v>3390.346025506991</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6546,19 +6546,19 @@
         <v>73.36485894755026</v>
       </c>
       <c r="L30" t="n">
-        <v>73.36485894755026</v>
+        <v>556.9309448458635</v>
       </c>
       <c r="M30" t="n">
-        <v>579.4156798503576</v>
+        <v>1184.702594472545</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1840.480565683104</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>2357.000848274085</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192015</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286452</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026483</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918591</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303046</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401239</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463666</v>
+        <v>904.3560533993086</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057089</v>
+        <v>601.3807258108114</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230767</v>
+        <v>302.1370811803397</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189322</v>
+        <v>91.97314162835521</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076161</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>678.4527699041217</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.773061622651</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667231</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2350.858338031763</v>
+        <v>2138.319739939207</v>
       </c>
       <c r="O32" t="n">
-        <v>2790.897938924092</v>
+        <v>2578.359340831535</v>
       </c>
       <c r="P32" t="n">
-        <v>3139.085431055613</v>
+        <v>3006.843833557903</v>
       </c>
       <c r="Q32" t="n">
-        <v>3429.204083923632</v>
+        <v>3303.341514273834</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.37741203808</v>
+        <v>3377.756780117257</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908495</v>
+        <v>3325.162335939833</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380775</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.84221376124</v>
+        <v>3073.747225696898</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394123</v>
+        <v>2845.559527281941</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131754</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946336</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748462</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076161</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076161</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="K33" t="n">
-        <v>69.54754824076161</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="L33" t="n">
-        <v>69.54754824076161</v>
+        <v>551.1212215006584</v>
       </c>
       <c r="M33" t="n">
-        <v>575.5983691435694</v>
+        <v>1178.89287112734</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1834.670842337899</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>2351.19112492888</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965125</v>
+        <v>365.6713676929726</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918663</v>
+        <v>309.3853606404869</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237457</v>
+        <v>267.6713584245268</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123128</v>
+        <v>226.0316571652544</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546504</v>
+        <v>182.6248332597524</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834605</v>
+        <v>128.2898902407231</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431911</v>
+        <v>86.73045008374214</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076161</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076161</v>
+        <v>149.4335135798904</v>
       </c>
       <c r="K34" t="n">
-        <v>151.3825893507035</v>
+        <v>231.2685546898323</v>
       </c>
       <c r="L34" t="n">
-        <v>409.5369032805507</v>
+        <v>507.0483151386147</v>
       </c>
       <c r="M34" t="n">
-        <v>595.8284816188147</v>
+        <v>693.3398934768787</v>
       </c>
       <c r="N34" t="n">
-        <v>884.2912083770942</v>
+        <v>876.529527508088</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145873</v>
+        <v>1039.234294549796</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649521</v>
+        <v>1264.910118928625</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746643</v>
+        <v>1379.984435873658</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308584</v>
+        <v>1370.00255738776</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420498</v>
+        <v>1281.105584451835</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501594</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.78596262502</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395512</v>
+        <v>835.7257283273693</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000934</v>
+        <v>666.3144371400721</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124411</v>
+        <v>546.1532258045803</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584491</v>
+        <v>436.9602755027487</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6929,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6971,7 +6971,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
         <v>2405.467337224691</v>
@@ -7014,22 +7014,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L36" t="n">
-        <v>545.6852136024288</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M36" t="n">
-        <v>568.1699486069232</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.783730761083</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>1975.304013352064</v>
       </c>
       <c r="P36" t="n">
         <v>2146.089571124861</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O37" t="n">
-        <v>967.282790386234</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162813</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q37" t="n">
         <v>1090.581152532863</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7251,16 +7251,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7333,25 +7333,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>149.5338114222411</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L40" t="n">
-        <v>313.6614512960409</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M40" t="n">
-        <v>499.953029634305</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>683.1426636655142</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
         <v>68.77950792924223</v>
@@ -7436,22 +7436,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7488,19 +7488,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>689.8907773307967</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O42" t="n">
         <v>1740.468202408463</v>
@@ -7576,19 +7576,19 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N43" t="n">
-        <v>683.1426636655142</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O43" t="n">
-        <v>845.8474307072222</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R43" t="n">
         <v>1098.20216247628</v>
@@ -7725,19 +7725,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7804,28 +7804,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>270.969171101253</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>435.0968109750528</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133168</v>
       </c>
       <c r="N46" t="n">
-        <v>677.5630210573304</v>
+        <v>804.5780233445259</v>
       </c>
       <c r="O46" t="n">
-        <v>969.3241577214669</v>
+        <v>967.282790386234</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.77996610623</v>
+        <v>1087.158956162813</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476281</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R46" t="n">
         <v>1098.202162476281</v>
@@ -7976,22 +7976,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>288.1928110140938</v>
+        <v>658.4862820354008</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
@@ -8055,22 +8055,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837487</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>526.3032062588444</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>574.7607069788189</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8213,22 +8213,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>236.133745129378</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>485.3399966596937</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321642</v>
+        <v>668.5156360519584</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920152</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
@@ -8292,22 +8292,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>530.9914402615959</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886035</v>
+        <v>567.4452609440966</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8456,7 +8456,7 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>427.440794103012</v>
+        <v>614.1534811140714</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8471,7 +8471,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,16 +8529,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
-        <v>674.5394322581658</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
@@ -8547,10 +8547,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>287.0481265258778</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8766,19 +8766,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>603.5495674056833</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -9003,19 +9003,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>603.5495674056833</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9240,19 +9240,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>278.2539578070002</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9477,19 +9477,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>115.0989755892052</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9720,13 +9720,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>166.3231752016895</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9951,16 +9951,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>176.3345925796058</v>
       </c>
       <c r="M27" t="n">
-        <v>603.549567405683</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
         <v>747.7741039759435</v>
@@ -9969,10 +9969,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10194,10 +10194,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>603.549567405683</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
         <v>747.7741039759435</v>
@@ -10206,10 +10206,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10431,10 +10431,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
         <v>747.7741039759435</v>
@@ -10443,10 +10443,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>122.1334109295184</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10662,16 +10662,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>115.0989755892052</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
         <v>747.7741039759435</v>
@@ -10680,7 +10680,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>259.5940292362812</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
@@ -10899,19 +10899,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>603.5495674056833</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11136,22 +11136,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>624.8237719316268</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
@@ -11373,22 +11373,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>297.8137645877551</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>289.3132511075412</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993876</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177849</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E13" t="n">
-        <v>82.9249116246576</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442487</v>
+        <v>75.23263252145716</v>
       </c>
       <c r="G13" t="n">
-        <v>54.71022589820959</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338904</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456097</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23501,13 +23501,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>209.6248565600517</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>118.053045535114</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993876</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177849</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E16" t="n">
-        <v>82.9249116246576</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442487</v>
+        <v>27.43751921775491</v>
       </c>
       <c r="G16" t="n">
-        <v>54.71022589820981</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338904</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456097</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1273194.948218425</v>
+        <v>1272894.174411545</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1273194.948218425</v>
+        <v>1272894.174411545</v>
       </c>
     </row>
     <row r="4">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918558</v>
+        <v>173858.6570340553</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062201</v>
+        <v>22558.42953401333</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.325536682</v>
+        <v>47425.32553668192</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945024</v>
+        <v>200285.8640399296</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.4717972856</v>
+        <v>62456.24177539663</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962301</v>
+        <v>43252.52447081114</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277117</v>
+        <v>27767.69404277125</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178075.8047892386</v>
+        <v>184487.2052585814</v>
       </c>
       <c r="C4" t="n">
-        <v>178075.8047892386</v>
+        <v>184487.2052585814</v>
       </c>
       <c r="D4" t="n">
         <v>165792.0503172815</v>
       </c>
       <c r="E4" t="n">
-        <v>86988.78851589424</v>
+        <v>86988.78851589427</v>
       </c>
       <c r="F4" t="n">
-        <v>86988.78851589424</v>
+        <v>86988.78851589427</v>
       </c>
       <c r="G4" t="n">
         <v>134747.7050074764</v>
@@ -26439,13 +26439,13 @@
         <v>134747.7050074764</v>
       </c>
       <c r="J4" t="n">
+        <v>135498.1974718596</v>
+      </c>
+      <c r="K4" t="n">
         <v>135498.1974718595</v>
       </c>
-      <c r="K4" t="n">
-        <v>135498.1974718596</v>
-      </c>
       <c r="L4" t="n">
-        <v>135242.6235713762</v>
+        <v>135109.2289623214</v>
       </c>
       <c r="M4" t="n">
         <v>134747.7050074764</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26491,13 +26491,13 @@
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173848</v>
+        <v>60823.19813315425</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-426965.0542211082</v>
+        <v>-423515.929827454</v>
       </c>
       <c r="C6" t="n">
-        <v>-244760.1059292524</v>
+        <v>-249657.2727933987</v>
       </c>
       <c r="D6" t="n">
-        <v>-250199.6479050767</v>
+        <v>-257935.937128468</v>
       </c>
       <c r="E6" t="n">
-        <v>-252297.3696897793</v>
+        <v>-252507.1012364689</v>
       </c>
       <c r="F6" t="n">
-        <v>-140174.8082157348</v>
+        <v>-140384.5397624243</v>
       </c>
       <c r="G6" t="n">
-        <v>-240342.7998596781</v>
+        <v>-240342.799859678</v>
       </c>
       <c r="H6" t="n">
         <v>-192917.4743229961</v>
@@ -26543,16 +26543,16 @@
         <v>-192917.4743229961</v>
       </c>
       <c r="J6" t="n">
-        <v>-405959.3919202815</v>
+        <v>-399443.1067657087</v>
       </c>
       <c r="K6" t="n">
-        <v>-199157.2427257791</v>
+        <v>-199157.242725779</v>
       </c>
       <c r="L6" t="n">
-        <v>-254339.8316604003</v>
+        <v>-258388.6688708723</v>
       </c>
       <c r="M6" t="n">
-        <v>-235118.3037826191</v>
+        <v>-236169.9987938072</v>
       </c>
       <c r="N6" t="n">
         <v>-192917.4743229961</v>
@@ -26561,7 +26561,7 @@
         <v>-220685.1683657673</v>
       </c>
       <c r="P6" t="n">
-        <v>-192917.474322996</v>
+        <v>-192917.4743229961</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26713,7 +26713,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,13 +26811,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443784</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095201</v>
+        <v>844.4391950293142</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.2816569208525</v>
+        <v>59.2816569208524</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346396</v>
+        <v>34.70961755346406</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.626839746607</v>
+        <v>78.07030221924579</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551339</v>
+        <v>17.58004954287453</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346396</v>
+        <v>34.70961755346406</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485822</v>
+        <v>72.62154181506401</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773711</v>
+        <v>659.3622249971654</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407304</v>
+        <v>117.1268713042789</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.2816569208525</v>
+        <v>59.2816569208524</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346396</v>
+        <v>34.70961755346406</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485822</v>
+        <v>72.62154181506401</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>340.855949901031</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>211.8926983458048</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27464,13 +27464,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>66.31852263746286</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>124.5704364758535</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27543,22 +27543,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>67.35382162739938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
@@ -27600,10 +27600,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>116.999671016706</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>159.9879199437777</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>3.473518397990688</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27701,10 +27701,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>61.99025433061755</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>124.5704364758535</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>98.4085507004078</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>230.3761846104852</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27859,16 +27859,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>239.3393821281193</v>
       </c>
       <c r="Y8" t="n">
-        <v>165.6604768226763</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>130.3195537952425</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>73.98458942949618</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="17">
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28764,10 +28764,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>128.2979821082773</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28980,7 +28980,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28992,19 +28992,19 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>28.012500264853</v>
       </c>
       <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>5.636002634528316</v>
-      </c>
-      <c r="R22" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29083,10 +29083,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733418</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T23" t="n">
         <v>130.3599693155844</v>
@@ -29217,7 +29217,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29235,10 +29235,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>128.2979821082774</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>28.01250026485285</v>
       </c>
       <c r="R25" t="n">
         <v>130.3599693155844</v>
@@ -29296,22 +29296,22 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901306</v>
       </c>
       <c r="M26" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>30.27223765901266</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
         <v>93.99127447431646</v>
@@ -29454,7 +29454,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431634</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
         <v>93.99127447431646</v>
@@ -29475,7 +29475,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431658</v>
       </c>
       <c r="R28" t="n">
         <v>93.99127447431646</v>
@@ -29539,10 +29539,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>86.65052755599584</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="N29" t="n">
         <v>93.99127447431646</v>
@@ -29551,13 +29551,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29746,34 +29746,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -29782,40 +29782,40 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>81.10808140893505</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="R32" t="n">
-        <v>86.27291196566499</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>94.976438440452</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.336457300071</v>
+        <v>106.8683420224747</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="35">
@@ -30165,7 +30165,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30177,10 +30177,10 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>28.01250026485255</v>
       </c>
       <c r="O37" t="n">
-        <v>128.2979821082783</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30405,7 +30405,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>5.636002634529035</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30417,7 +30417,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30648,22 +30648,22 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="N43" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30876,10 +30876,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>28.01250026485309</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30891,16 +30891,16 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="P46" t="n">
-        <v>5.636002634529518</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34696,22 +34696,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>138.4677594163665</v>
+        <v>508.7612304376735</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344369</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>440.9310934046777</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>482.07314808993</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34933,22 +34933,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>93.07534195014065</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>332.0918269292021</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>440.9310934046777</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344369</v>
+        <v>482.07314808993</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35176,7 +35176,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>274.1926243725203</v>
+        <v>460.9053113835797</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35191,7 +35191,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>582.1523102088539</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
@@ -35267,10 +35267,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>199.9647617065632</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>511.1624453563714</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257284</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488439</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>511.1624453563714</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257284</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488439</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>188.193610950082</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -36051,7 +36051,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36060,10 +36060,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>131.7547461184298</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>7.697989841835607</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>22.71185353989332</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36288,19 +36288,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>185.0400343749588</v>
+        <v>213.0525346398118</v>
       </c>
       <c r="O22" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.092766644680799</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>7.69798984183555</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>73.93605315237758</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36531,13 +36531,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>249.3850182462355</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>31.46926427500534</v>
       </c>
       <c r="R25" t="n">
-        <v>7.697989841835607</v>
+        <v>7.69798984183555</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,22 +36592,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>528.575562627224</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>474.756683004799</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
         <v>445.6958119809042</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>86.27424572268755</v>
       </c>
       <c r="M27" t="n">
-        <v>511.1624453563711</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
         <v>662.4019911217769</v>
@@ -36689,10 +36689,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215727</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446907</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,10 +36835,10 @@
         <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
-        <v>638.1665882070873</v>
+        <v>581.7882983101038</v>
       </c>
       <c r="N29" t="n">
         <v>627.1339852192276</v>
@@ -36847,13 +36847,13 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,10 +36914,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>511.1624453563711</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
         <v>662.4019911217769</v>
@@ -36926,10 +36926,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318506</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
@@ -37078,19 +37078,19 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449821</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>432.8126189155228</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111301</v>
+        <v>299.492606783769</v>
       </c>
       <c r="R32" t="n">
-        <v>48.65992738833171</v>
+        <v>75.16693519537657</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,10 +37151,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
         <v>662.4019911217769</v>
@@ -37163,10 +37163,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>35.0500461102038</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>82.70543230055077</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>260.761933262472</v>
+        <v>278.5654145947298</v>
       </c>
       <c r="M34" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371498</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380291</v>
+        <v>227.9553781604329</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102234</v>
+        <v>116.2366837828623</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>22.71185353989332</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
         <v>662.4019911217769</v>
@@ -37400,7 +37400,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>172.5106644169666</v>
       </c>
       <c r="Q36" t="n">
         <v>236.7324157120106</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
@@ -37473,10 +37473,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>213.0525346398113</v>
       </c>
       <c r="O37" t="n">
-        <v>292.6462316453571</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.69798984183555</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>511.1624453563714</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>88.29766032133901</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37713,7 +37713,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>539.4516590774601</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
@@ -37944,22 +37944,22 @@
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>188.1733114527919</v>
+        <v>316.4712935610698</v>
       </c>
       <c r="N43" t="n">
-        <v>190.6760370094878</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>110.6741579516631</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
@@ -38187,16 +38187,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>126.7230387724877</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.69798984183555</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
